--- a/fase_3/evidencias del proyecto/Plan-de-prueba.xlsx
+++ b/fase_3/evidencias del proyecto/Plan-de-prueba.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11110"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/victorisaiasgabrielbastiasescobar/Documents/proyects/Capstone/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/victorisaiasgabrielbastiasescobar/Documents/projects/Capstone/fase_3/evidencias del proyecto/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FB710CB-FD0C-2F4E-9F85-1318CEBB1CB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2D5D664-EBB4-5440-A703-24C562852162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3960" yWindow="5060" windowWidth="34440" windowHeight="15400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="335">
   <si>
     <t>Id caso</t>
   </si>
@@ -1030,6 +1030,15 @@
   </si>
   <si>
     <t>001-079</t>
+  </si>
+  <si>
+    <t>Estado</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>NO OK</t>
   </si>
 </sst>
 </file>
@@ -1132,7 +1141,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="10">
     <dxf>
       <font>
         <b/>
@@ -1142,6 +1151,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
+        <color rgb="FF000000"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -1155,6 +1165,33 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -1225,19 +1262,6 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
         <sz val="14"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
@@ -1274,16 +1298,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{74130D70-8E10-4140-803C-4AA9CEAA6752}" name="Tabla1" displayName="Tabla1" ref="A1:G80" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="A1:G80" xr:uid="{74130D70-8E10-4140-803C-4AA9CEAA6752}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{0D9A6B86-1DAD-3B46-A7B9-57B0D4038BF4}" name="Id caso" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{69215D40-B29A-D748-BA12-5025556A49E6}" name="Nombre caso" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{E31CD60D-E0F9-494E-AC45-50D4BFCC40A1}" name="Tipo" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{CAACC93E-1D4A-AE40-B7D5-C363B0AAF589}" name="Resultado esperado" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{5DEF8173-8189-A849-A960-22E60F4B3310}" name="Criterio de aceptación" dataDxfId="0"/>
-    <tableColumn id="6" xr3:uid="{EA4AF127-E880-B64D-A13D-FDD26D4982DB}" name="Estrategia" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{97C44BB5-EAE2-3142-8F5B-F3D2EF64D0AD}" name="Estimación de tiempo ejecución / Minutos" dataDxfId="6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{74130D70-8E10-4140-803C-4AA9CEAA6752}" name="Tabla1" displayName="Tabla1" ref="A1:H80" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="A1:H80" xr:uid="{74130D70-8E10-4140-803C-4AA9CEAA6752}">
+    <filterColumn colId="7">
+      <filters>
+        <filter val="OK"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{0D9A6B86-1DAD-3B46-A7B9-57B0D4038BF4}" name="Id caso" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{69215D40-B29A-D748-BA12-5025556A49E6}" name="Nombre caso" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{E31CD60D-E0F9-494E-AC45-50D4BFCC40A1}" name="Tipo" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{CAACC93E-1D4A-AE40-B7D5-C363B0AAF589}" name="Resultado esperado" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{5DEF8173-8189-A849-A960-22E60F4B3310}" name="Criterio de aceptación" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{EA4AF127-E880-B64D-A13D-FDD26D4982DB}" name="Estrategia" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{97C44BB5-EAE2-3142-8F5B-F3D2EF64D0AD}" name="Estimación de tiempo ejecución / Minutos" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{CC0759B0-5D93-AD4B-9AD3-E17583F6A927}" name="Estado" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1576,10 +1607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G80"/>
+  <dimension ref="A1:H80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E81" sqref="E81"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1588,13 +1619,14 @@
     <col min="2" max="2" width="132.5" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="107.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="97.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="146.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.83203125" style="3"/>
+    <col min="7" max="7" width="45.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1616,8 +1648,11 @@
       <c r="G1" s="1" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H1" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>197</v>
       </c>
@@ -1639,8 +1674,11 @@
       <c r="G2" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H2" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>198</v>
       </c>
@@ -1662,8 +1700,11 @@
       <c r="G3" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H3" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>199</v>
       </c>
@@ -1685,8 +1726,11 @@
       <c r="G4" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H4" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>200</v>
       </c>
@@ -1708,8 +1752,11 @@
       <c r="G5" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H5" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>201</v>
       </c>
@@ -1731,8 +1778,11 @@
       <c r="G6" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H6" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>202</v>
       </c>
@@ -1754,8 +1804,11 @@
       <c r="G7" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H7" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>203</v>
       </c>
@@ -1777,8 +1830,11 @@
       <c r="G8" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H8" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>204</v>
       </c>
@@ -1800,8 +1856,11 @@
       <c r="G9" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H9" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>205</v>
       </c>
@@ -1823,8 +1882,11 @@
       <c r="G10" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H10" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>206</v>
       </c>
@@ -1846,8 +1908,11 @@
       <c r="G11" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H11" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>207</v>
       </c>
@@ -1869,8 +1934,11 @@
       <c r="G12" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H12" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>208</v>
       </c>
@@ -1892,8 +1960,11 @@
       <c r="G13" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H13" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>209</v>
       </c>
@@ -1915,8 +1986,11 @@
       <c r="G14" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H14" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>210</v>
       </c>
@@ -1938,8 +2012,11 @@
       <c r="G15" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H15" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>211</v>
       </c>
@@ -1961,8 +2038,11 @@
       <c r="G16" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H16" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>212</v>
       </c>
@@ -1984,8 +2064,11 @@
       <c r="G17" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H17" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>213</v>
       </c>
@@ -2007,8 +2090,11 @@
       <c r="G18" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H18" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>214</v>
       </c>
@@ -2030,8 +2116,11 @@
       <c r="G19" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H19" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>215</v>
       </c>
@@ -2053,8 +2142,11 @@
       <c r="G20" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H20" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>216</v>
       </c>
@@ -2076,8 +2168,11 @@
       <c r="G21" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H21" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>217</v>
       </c>
@@ -2099,8 +2194,11 @@
       <c r="G22" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H22" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>218</v>
       </c>
@@ -2122,8 +2220,11 @@
       <c r="G23" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H23" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>219</v>
       </c>
@@ -2145,8 +2246,11 @@
       <c r="G24" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H24" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>220</v>
       </c>
@@ -2168,8 +2272,11 @@
       <c r="G25" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H25" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>221</v>
       </c>
@@ -2191,8 +2298,11 @@
       <c r="G26" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H26" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>222</v>
       </c>
@@ -2214,8 +2324,11 @@
       <c r="G27" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H27" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>223</v>
       </c>
@@ -2237,8 +2350,11 @@
       <c r="G28" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H28" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>224</v>
       </c>
@@ -2260,8 +2376,11 @@
       <c r="G29" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H29" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>225</v>
       </c>
@@ -2283,8 +2402,11 @@
       <c r="G30" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H30" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>226</v>
       </c>
@@ -2306,8 +2428,11 @@
       <c r="G31" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H31" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>227</v>
       </c>
@@ -2329,8 +2454,11 @@
       <c r="G32" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H32" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>228</v>
       </c>
@@ -2352,8 +2480,11 @@
       <c r="G33" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H33" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>229</v>
       </c>
@@ -2375,8 +2506,11 @@
       <c r="G34" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H34" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>230</v>
       </c>
@@ -2398,8 +2532,11 @@
       <c r="G35" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H35" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>231</v>
       </c>
@@ -2421,8 +2558,11 @@
       <c r="G36" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H36" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>232</v>
       </c>
@@ -2444,8 +2584,11 @@
       <c r="G37" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H37" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>233</v>
       </c>
@@ -2467,8 +2610,11 @@
       <c r="G38" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H38" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>234</v>
       </c>
@@ -2490,8 +2636,11 @@
       <c r="G39" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H39" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>235</v>
       </c>
@@ -2513,8 +2662,11 @@
       <c r="G40" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H40" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>236</v>
       </c>
@@ -2536,8 +2688,11 @@
       <c r="G41" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H41" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>237</v>
       </c>
@@ -2559,8 +2714,11 @@
       <c r="G42" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H42" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>238</v>
       </c>
@@ -2582,8 +2740,11 @@
       <c r="G43" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H43" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>239</v>
       </c>
@@ -2605,8 +2766,11 @@
       <c r="G44" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H44" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>240</v>
       </c>
@@ -2628,8 +2792,11 @@
       <c r="G45" s="2">
         <v>25</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H45" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>241</v>
       </c>
@@ -2651,8 +2818,11 @@
       <c r="G46" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H46" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>242</v>
       </c>
@@ -2674,8 +2844,11 @@
       <c r="G47" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H47" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>243</v>
       </c>
@@ -2697,8 +2870,11 @@
       <c r="G48" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H48" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>244</v>
       </c>
@@ -2720,8 +2896,11 @@
       <c r="G49" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H49" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>245</v>
       </c>
@@ -2743,8 +2922,11 @@
       <c r="G50" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H50" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>246</v>
       </c>
@@ -2766,8 +2948,11 @@
       <c r="G51" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H51" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>247</v>
       </c>
@@ -2789,8 +2974,11 @@
       <c r="G52" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H52" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>248</v>
       </c>
@@ -2812,8 +3000,11 @@
       <c r="G53" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H53" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>249</v>
       </c>
@@ -2835,8 +3026,11 @@
       <c r="G54" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H54" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>250</v>
       </c>
@@ -2858,8 +3052,11 @@
       <c r="G55" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H55" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>251</v>
       </c>
@@ -2881,8 +3078,11 @@
       <c r="G56" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H56" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>252</v>
       </c>
@@ -2904,8 +3104,11 @@
       <c r="G57" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H57" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>253</v>
       </c>
@@ -2927,8 +3130,11 @@
       <c r="G58" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H58" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>254</v>
       </c>
@@ -2950,8 +3156,11 @@
       <c r="G59" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H59" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>255</v>
       </c>
@@ -2973,8 +3182,11 @@
       <c r="G60" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H60" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>256</v>
       </c>
@@ -2996,8 +3208,11 @@
       <c r="G61" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H61" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>313</v>
       </c>
@@ -3019,8 +3234,11 @@
       <c r="G62" s="4">
         <v>11.6108374384236</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H62" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>314</v>
       </c>
@@ -3042,8 +3260,11 @@
       <c r="G63" s="4">
         <v>11.497536945812801</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H63" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>315</v>
       </c>
@@ -3065,8 +3286,11 @@
       <c r="G64" s="4">
         <v>11.384236453202</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H64" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>316</v>
       </c>
@@ -3088,8 +3312,11 @@
       <c r="G65" s="4">
         <v>11.2709359605911</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H65" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>317</v>
       </c>
@@ -3111,8 +3338,11 @@
       <c r="G66" s="4">
         <v>11.157635467980301</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H66" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>318</v>
       </c>
@@ -3134,8 +3364,11 @@
       <c r="G67" s="4">
         <v>11.0443349753695</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H67" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>319</v>
       </c>
@@ -3157,8 +3390,11 @@
       <c r="G68" s="4">
         <v>10.9310344827586</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H68" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>320</v>
       </c>
@@ -3180,8 +3416,11 @@
       <c r="G69" s="4">
         <v>10.817733990147801</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H69" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>321</v>
       </c>
@@ -3203,8 +3442,11 @@
       <c r="G70" s="4">
         <v>10.7044334975369</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H70" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>322</v>
       </c>
@@ -3226,8 +3468,11 @@
       <c r="G71" s="4">
         <v>10.5911330049261</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H71" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>323</v>
       </c>
@@ -3249,8 +3494,11 @@
       <c r="G72" s="4">
         <v>10.477832512315301</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H72" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>324</v>
       </c>
@@ -3272,8 +3520,11 @@
       <c r="G73" s="4">
         <v>10.3645320197044</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H73" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>325</v>
       </c>
@@ -3295,8 +3546,11 @@
       <c r="G74" s="4">
         <v>10.2512315270936</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H74" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>326</v>
       </c>
@@ -3318,8 +3572,11 @@
       <c r="G75" s="4">
         <v>10.137931034482801</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H75" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>327</v>
       </c>
@@ -3341,8 +3598,11 @@
       <c r="G76" s="4">
         <v>10.0246305418719</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H76" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>328</v>
       </c>
@@ -3364,8 +3624,11 @@
       <c r="G77" s="4">
         <v>9.9113300492610801</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H77" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>329</v>
       </c>
@@ -3387,8 +3650,11 @@
       <c r="G78" s="4">
         <v>9.7980295566502402</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H78" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>330</v>
       </c>
@@ -3410,8 +3676,11 @@
       <c r="G79" s="4">
         <v>9.6847290640394093</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H79" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>331</v>
       </c>
@@ -3432,6 +3701,9 @@
       </c>
       <c r="G80" s="4">
         <v>9.5714285714285694</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>333</v>
       </c>
     </row>
   </sheetData>
